--- a/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
+++ b/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quoct\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uintah\Uintah_NTNU\SUBSLIDE\MPMICE2\porousFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C9C278-02E1-4F87-8718-8F62903549F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DCFA82-9D82-4EC9-9D93-B1B5A99B2F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="15990" windowWidth="20820" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="porous flow" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1666,210 +1663,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="12">
-          <cell r="K12">
-            <v>0.72</v>
-          </cell>
-          <cell r="L12">
-            <v>8.5132458847736639E-2</v>
-          </cell>
-          <cell r="M12">
-            <v>9.6629999999999994E-2</v>
-          </cell>
-          <cell r="O12">
-            <v>4.2566229423868319E-2</v>
-          </cell>
-          <cell r="P12">
-            <v>4.8259999999999997E-2</v>
-          </cell>
-          <cell r="R12">
-            <v>2.128311471193416E-2</v>
-          </cell>
-          <cell r="S12">
-            <v>2.4140000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="K13">
-            <v>0.7</v>
-          </cell>
-          <cell r="L13">
-            <v>0.1033928571428572</v>
-          </cell>
-          <cell r="M13">
-            <v>0.1103</v>
-          </cell>
-          <cell r="O13">
-            <v>5.1696428571428601E-2</v>
-          </cell>
-          <cell r="P13">
-            <v>5.5E-2</v>
-          </cell>
-          <cell r="R13">
-            <v>2.5848214285714301E-2</v>
-          </cell>
-          <cell r="S13">
-            <v>2.7519999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14">
-            <v>0.68</v>
-          </cell>
-          <cell r="L14">
-            <v>0.1246597462514417</v>
-          </cell>
-          <cell r="M14">
-            <v>0.1278</v>
-          </cell>
-          <cell r="O14">
-            <v>6.2329873125720851E-2</v>
-          </cell>
-          <cell r="P14">
-            <v>6.3780000000000003E-2</v>
-          </cell>
-          <cell r="R14">
-            <v>3.1164936562860426E-2</v>
-          </cell>
-          <cell r="S14">
-            <v>3.1859999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="K15">
-            <v>0.66</v>
-          </cell>
-          <cell r="L15">
-            <v>0.14938743495561674</v>
-          </cell>
-          <cell r="M15">
-            <v>0.15</v>
-          </cell>
-          <cell r="O15">
-            <v>7.4693717477808369E-2</v>
-          </cell>
-          <cell r="P15">
-            <v>7.4859999999999996E-2</v>
-          </cell>
-          <cell r="R15">
-            <v>3.7346858738904185E-2</v>
-          </cell>
-          <cell r="S15">
-            <v>3.7379999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16">
-            <v>0.64</v>
-          </cell>
-          <cell r="L16">
-            <v>0.17811035156249999</v>
-          </cell>
-          <cell r="M16">
-            <v>0.1782</v>
-          </cell>
-          <cell r="O16">
-            <v>8.9055175781249996E-2</v>
-          </cell>
-          <cell r="P16">
-            <v>8.8849999999999998E-2</v>
-          </cell>
-          <cell r="R16">
-            <v>4.4527587890624998E-2</v>
-          </cell>
-          <cell r="S16">
-            <v>4.4350000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="K17">
-            <v>0.62</v>
-          </cell>
-          <cell r="L17">
-            <v>0.21145985084980926</v>
-          </cell>
-          <cell r="M17">
-            <v>0.21360000000000001</v>
-          </cell>
-          <cell r="O17">
-            <v>0.10572992542490463</v>
-          </cell>
-          <cell r="P17">
-            <v>0.1065</v>
-          </cell>
-          <cell r="R17">
-            <v>5.2864962712452314E-2</v>
-          </cell>
-          <cell r="S17">
-            <v>5.314E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="K18">
-            <v>0.6</v>
-          </cell>
-          <cell r="L18">
-            <v>0.25018518518518534</v>
-          </cell>
-          <cell r="M18">
-            <v>0.25819999999999999</v>
-          </cell>
-          <cell r="O18">
-            <v>0.12509259259259267</v>
-          </cell>
-          <cell r="P18">
-            <v>0.12870000000000001</v>
-          </cell>
-          <cell r="R18">
-            <v>6.2546296296296336E-2</v>
-          </cell>
-          <cell r="S18">
-            <v>6.4199999999999993E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="K19">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="L19">
-            <v>0.29517984542211673</v>
-          </cell>
-          <cell r="M19">
-            <v>0.31419999999999998</v>
-          </cell>
-          <cell r="O19">
-            <v>0.14758992271105836</v>
-          </cell>
-          <cell r="P19">
-            <v>0.15659999999999999</v>
-          </cell>
-          <cell r="R19">
-            <v>7.3794961355529182E-2</v>
-          </cell>
-          <cell r="S19">
-            <v>7.8109999999999999E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2136,31 +1929,31 @@
   <dimension ref="B2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2180,7 +1973,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2216,7 +2009,7 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1E-3</v>
       </c>
@@ -2262,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J6" s="2">
         <v>0.7</v>
       </c>
@@ -2285,7 +2078,7 @@
         <v>2.7519999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J7" s="2">
         <v>0.68</v>
       </c>
@@ -2308,7 +2101,7 @@
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J8" s="2">
         <v>0.66</v>
       </c>
@@ -2331,7 +2124,7 @@
         <v>3.7379999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J9" s="2">
         <v>0.64</v>
       </c>
@@ -2354,7 +2147,7 @@
         <v>4.4350000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J10" s="2">
         <v>0.62</v>
       </c>
@@ -2377,7 +2170,7 @@
         <v>5.314E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J11" s="2">
         <v>0.6</v>
       </c>

--- a/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
+++ b/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quoct\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C9C278-02E1-4F87-8718-8F62903549F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949BD16-9A1B-428F-8824-34A923B80B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="15990" windowWidth="20820" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22515" yWindow="735" windowWidth="20460" windowHeight="18015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="porous flow" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -143,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +150,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -265,7 +266,7 @@
                   <c:v>0.1033928571428572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1246597462514417</c:v>
+                  <c:v>0.12465974625144199</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14938743495561674</c:v>
@@ -1666,210 +1667,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="12">
-          <cell r="K12">
-            <v>0.72</v>
-          </cell>
-          <cell r="L12">
-            <v>8.5132458847736639E-2</v>
-          </cell>
-          <cell r="M12">
-            <v>9.6629999999999994E-2</v>
-          </cell>
-          <cell r="O12">
-            <v>4.2566229423868319E-2</v>
-          </cell>
-          <cell r="P12">
-            <v>4.8259999999999997E-2</v>
-          </cell>
-          <cell r="R12">
-            <v>2.128311471193416E-2</v>
-          </cell>
-          <cell r="S12">
-            <v>2.4140000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="K13">
-            <v>0.7</v>
-          </cell>
-          <cell r="L13">
-            <v>0.1033928571428572</v>
-          </cell>
-          <cell r="M13">
-            <v>0.1103</v>
-          </cell>
-          <cell r="O13">
-            <v>5.1696428571428601E-2</v>
-          </cell>
-          <cell r="P13">
-            <v>5.5E-2</v>
-          </cell>
-          <cell r="R13">
-            <v>2.5848214285714301E-2</v>
-          </cell>
-          <cell r="S13">
-            <v>2.7519999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14">
-            <v>0.68</v>
-          </cell>
-          <cell r="L14">
-            <v>0.1246597462514417</v>
-          </cell>
-          <cell r="M14">
-            <v>0.1278</v>
-          </cell>
-          <cell r="O14">
-            <v>6.2329873125720851E-2</v>
-          </cell>
-          <cell r="P14">
-            <v>6.3780000000000003E-2</v>
-          </cell>
-          <cell r="R14">
-            <v>3.1164936562860426E-2</v>
-          </cell>
-          <cell r="S14">
-            <v>3.1859999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="K15">
-            <v>0.66</v>
-          </cell>
-          <cell r="L15">
-            <v>0.14938743495561674</v>
-          </cell>
-          <cell r="M15">
-            <v>0.15</v>
-          </cell>
-          <cell r="O15">
-            <v>7.4693717477808369E-2</v>
-          </cell>
-          <cell r="P15">
-            <v>7.4859999999999996E-2</v>
-          </cell>
-          <cell r="R15">
-            <v>3.7346858738904185E-2</v>
-          </cell>
-          <cell r="S15">
-            <v>3.7379999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16">
-            <v>0.64</v>
-          </cell>
-          <cell r="L16">
-            <v>0.17811035156249999</v>
-          </cell>
-          <cell r="M16">
-            <v>0.1782</v>
-          </cell>
-          <cell r="O16">
-            <v>8.9055175781249996E-2</v>
-          </cell>
-          <cell r="P16">
-            <v>8.8849999999999998E-2</v>
-          </cell>
-          <cell r="R16">
-            <v>4.4527587890624998E-2</v>
-          </cell>
-          <cell r="S16">
-            <v>4.4350000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="K17">
-            <v>0.62</v>
-          </cell>
-          <cell r="L17">
-            <v>0.21145985084980926</v>
-          </cell>
-          <cell r="M17">
-            <v>0.21360000000000001</v>
-          </cell>
-          <cell r="O17">
-            <v>0.10572992542490463</v>
-          </cell>
-          <cell r="P17">
-            <v>0.1065</v>
-          </cell>
-          <cell r="R17">
-            <v>5.2864962712452314E-2</v>
-          </cell>
-          <cell r="S17">
-            <v>5.314E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="K18">
-            <v>0.6</v>
-          </cell>
-          <cell r="L18">
-            <v>0.25018518518518534</v>
-          </cell>
-          <cell r="M18">
-            <v>0.25819999999999999</v>
-          </cell>
-          <cell r="O18">
-            <v>0.12509259259259267</v>
-          </cell>
-          <cell r="P18">
-            <v>0.12870000000000001</v>
-          </cell>
-          <cell r="R18">
-            <v>6.2546296296296336E-2</v>
-          </cell>
-          <cell r="S18">
-            <v>6.4199999999999993E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="K19">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="L19">
-            <v>0.29517984542211673</v>
-          </cell>
-          <cell r="M19">
-            <v>0.31419999999999998</v>
-          </cell>
-          <cell r="O19">
-            <v>0.14758992271105836</v>
-          </cell>
-          <cell r="P19">
-            <v>0.15659999999999999</v>
-          </cell>
-          <cell r="R19">
-            <v>7.3794961355529182E-2</v>
-          </cell>
-          <cell r="S19">
-            <v>7.8109999999999999E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2135,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,24 +1958,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -2203,18 +2000,18 @@
         <v>6</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="4"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
@@ -2290,7 +2087,7 @@
         <v>0.68</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1246597462514417</v>
+        <v>0.12465974625144199</v>
       </c>
       <c r="L7" s="2">
         <v>0.1278</v>
@@ -2412,4 +2209,196 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF046E-1632-4AFC-B9A7-CDEA47C4FC09}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="A1:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>4.3407000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.05</v>
+      </c>
+      <c r="B2">
+        <v>4.3307999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.15</v>
+      </c>
+      <c r="B3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.25</v>
+      </c>
+      <c r="B4">
+        <v>4.3357E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.35</v>
+      </c>
+      <c r="B5">
+        <v>4.3355999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.45</v>
+      </c>
+      <c r="B6">
+        <v>6.1936999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B7">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.65</v>
+      </c>
+      <c r="B8">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.75</v>
+      </c>
+      <c r="B9">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.85</v>
+      </c>
+      <c r="B10">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.95</v>
+      </c>
+      <c r="B11">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.05</v>
+      </c>
+      <c r="B12">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.25</v>
+      </c>
+      <c r="B14">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.35</v>
+      </c>
+      <c r="B15">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.45</v>
+      </c>
+      <c r="B16">
+        <v>0.12465974625144199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.55</v>
+      </c>
+      <c r="B17">
+        <v>4.3365000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.65</v>
+      </c>
+      <c r="B18">
+        <v>4.3361999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.75</v>
+      </c>
+      <c r="B19">
+        <v>4.3364E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.85</v>
+      </c>
+      <c r="B20">
+        <v>4.3361999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.95</v>
+      </c>
+      <c r="B21">
+        <v>4.3362999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>4.3407000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
+++ b/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quoct\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uintah\Uintah_NTNU\SUBSLIDE\MPMICE2\porousFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949BD16-9A1B-428F-8824-34A923B80B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5D82D6-FE58-499E-AF17-F261F36C84B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22515" yWindow="735" windowWidth="20460" windowHeight="18015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22005" yWindow="13410" windowWidth="21600" windowHeight="21645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="porous flow" sheetId="1" r:id="rId1"/>
@@ -1932,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2213,188 +2213,558 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF046E-1632-4AFC-B9A7-CDEA47C4FC09}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>4.3407000000000001E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>4.3407000000000001E-2</v>
+      </c>
+      <c r="F1">
+        <f>D1+0.025</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G1">
+        <v>4.3407000000000001E-2</v>
+      </c>
+      <c r="H1">
+        <f>F1+0.025</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.05</v>
       </c>
       <c r="B2">
         <v>4.3307999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>4.3307999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F22" si="0">D2+0.025</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.3307999999999999E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H22" si="1">F2+0.025</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.15</v>
       </c>
       <c r="B3">
         <v>4.3354999999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.15</v>
+      </c>
+      <c r="E3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.25</v>
       </c>
       <c r="B4">
         <v>4.3357E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.25</v>
+      </c>
+      <c r="E4">
+        <v>4.3357E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G4">
+        <v>4.3357E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.35</v>
       </c>
       <c r="B5">
         <v>4.3355999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.35</v>
+      </c>
+      <c r="E5">
+        <v>4.3355999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="G5">
+        <v>4.3355999999999999E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.45</v>
       </c>
       <c r="B6">
         <v>6.1936999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.45</v>
+      </c>
+      <c r="E6">
+        <v>6.1936999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="G6">
+        <v>6.1936999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.55000000000000004</v>
       </c>
       <c r="B7">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.12474200000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="G7">
+        <v>0.12474200000000001</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.65</v>
       </c>
       <c r="B8">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <v>0.127168</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.127168</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.75</v>
       </c>
       <c r="B9">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.75</v>
+      </c>
+      <c r="E9">
+        <v>0.12770400000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.12770400000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.85</v>
       </c>
       <c r="B10">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.85</v>
+      </c>
+      <c r="E10">
+        <v>0.12761700000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="G10">
+        <v>0.12761700000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.95</v>
       </c>
       <c r="B11">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0.95</v>
+      </c>
+      <c r="E11">
+        <v>0.127661</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.127661</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.05</v>
       </c>
       <c r="B12">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1.05</v>
+      </c>
+      <c r="E12">
+        <v>0.127634</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.075</v>
+      </c>
+      <c r="G12">
+        <v>0.127634</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.1499999999999999</v>
       </c>
       <c r="B13" s="4">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.12783800000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.1749999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.12783800000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.25</v>
       </c>
       <c r="B14">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1.25</v>
+      </c>
+      <c r="E14">
+        <v>0.127327</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.127327</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.35</v>
       </c>
       <c r="B15">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1.35</v>
+      </c>
+      <c r="E15">
+        <v>0.12703500000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+      <c r="G15">
+        <v>0.12703500000000001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.45</v>
       </c>
       <c r="B16">
         <v>0.12465974625144199</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1.45</v>
+      </c>
+      <c r="E16">
+        <v>9.2910000000000006E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.4749999999999999</v>
+      </c>
+      <c r="G16">
+        <v>9.2910000000000006E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.55</v>
       </c>
       <c r="B17">
         <v>4.3365000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1.55</v>
+      </c>
+      <c r="E17">
+        <v>4.3365000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.575</v>
+      </c>
+      <c r="G17">
+        <v>4.3365000000000001E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.65</v>
       </c>
       <c r="B18">
         <v>4.3361999999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1.65</v>
+      </c>
+      <c r="E18">
+        <v>4.3361999999999998E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.6749999999999998</v>
+      </c>
+      <c r="G18">
+        <v>4.3361999999999998E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.75</v>
       </c>
       <c r="B19">
         <v>4.3364E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1.75</v>
+      </c>
+      <c r="E19">
+        <v>4.3364E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="G19">
+        <v>4.3364E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.85</v>
       </c>
       <c r="B20">
         <v>4.3361999999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1.85</v>
+      </c>
+      <c r="E20">
+        <v>4.3361999999999998E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="G20">
+        <v>4.3361999999999998E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.95</v>
       </c>
       <c r="B21">
         <v>4.3362999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1.95</v>
+      </c>
+      <c r="E21">
+        <v>4.3362999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="G21">
+        <v>4.3362999999999999E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
         <v>4.3407000000000001E-2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>4.3407000000000001E-2</v>
+      </c>
+      <c r="G22">
+        <v>4.3407000000000001E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
+++ b/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uintah\Uintah_NTNU\SUBSLIDE\MPMICE2\porousFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5D82D6-FE58-499E-AF17-F261F36C84B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601F135-182A-40AF-B31E-5B55733ABC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22005" yWindow="13410" windowWidth="21600" windowHeight="21645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="porous flow" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Analytical solution</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Analytical solution vs numerical solution</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>cm/s</t>
   </si>
 </sst>
 </file>
@@ -1932,32 +1941,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1986,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2013,16 +2022,15 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C5" s="3">
-        <f>1-D5</f>
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="D5" s="3">
-        <v>0.62</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E5" s="3">
         <v>1E-3</v>
@@ -2035,7 +2043,7 @@
       </c>
       <c r="H5" s="2">
         <f>1/C5*B5*B5/180/E5*(1-D5)^3/D5/D5*F5/G5</f>
-        <v>0.21145985084980926</v>
+        <v>3.4751488095238082E-5</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>3</v>
@@ -2059,7 +2067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J6" s="2">
         <v>0.7</v>
       </c>
@@ -2082,7 +2090,7 @@
         <v>2.7519999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J7" s="2">
         <v>0.68</v>
       </c>
@@ -2105,7 +2113,10 @@
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" s="2">
         <v>0.66</v>
       </c>
@@ -2128,7 +2139,14 @@
         <v>3.7379999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <f>B5*B5/180/E5*(1-D5)^3/D5/D5</f>
+        <v>1.50907029478458E-10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="2">
         <v>0.64</v>
       </c>
@@ -2151,7 +2169,14 @@
         <v>4.4350000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <f>B9*100</f>
+        <v>1.50907029478458E-8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="2">
         <v>0.62</v>
       </c>
@@ -2174,7 +2199,10 @@
         <v>5.314E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>0.01</v>
+      </c>
       <c r="J11" s="2">
         <v>0.6</v>
       </c>
@@ -2215,13 +2243,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF046E-1632-4AFC-B9A7-CDEA47C4FC09}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H1:H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2246,7 +2274,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -2260,7 +2288,7 @@
         <v>4.3307999999999999E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F22" si="0">D2+0.025</f>
+        <f t="shared" ref="F2:F21" si="0">D2+0.025</f>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="G2">
@@ -2271,7 +2299,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.15</v>
       </c>
@@ -2296,7 +2324,7 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -2321,7 +2349,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.35</v>
       </c>
@@ -2346,7 +2374,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.45</v>
       </c>
@@ -2371,7 +2399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.55000000000000004</v>
       </c>
@@ -2396,7 +2424,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.65</v>
       </c>
@@ -2421,7 +2449,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.75</v>
       </c>
@@ -2446,7 +2474,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.85</v>
       </c>
@@ -2471,7 +2499,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.95</v>
       </c>
@@ -2496,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.05</v>
       </c>
@@ -2521,7 +2549,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.1499999999999999</v>
       </c>
@@ -2546,7 +2574,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.25</v>
       </c>
@@ -2571,7 +2599,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.35</v>
       </c>
@@ -2596,7 +2624,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.45</v>
       </c>
@@ -2621,7 +2649,7 @@
         <v>1.4999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.55</v>
       </c>
@@ -2646,7 +2674,7 @@
         <v>1.5999999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.65</v>
       </c>
@@ -2671,7 +2699,7 @@
         <v>1.6999999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.75</v>
       </c>
@@ -2696,7 +2724,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.85</v>
       </c>
@@ -2721,7 +2749,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.95</v>
       </c>
@@ -2746,7 +2774,7 @@
         <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>

--- a/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
+++ b/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uintah\Uintah_NTNU\SUBSLIDE\MPMICE2\porousFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601F135-182A-40AF-B31E-5B55733ABC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E96643-A082-40DA-9843-36ED27FBC34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Analytical solution</t>
   </si>
@@ -79,13 +79,16 @@
     <t>Analytical solution vs numerical solution</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>m/s</t>
   </si>
   <si>
     <t>cm/s</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Permeability</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +171,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1939,9 +1960,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1967,24 +1988,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1999,32 +2020,32 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="5"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>1.83E-2</v>
       </c>
       <c r="C5" s="3">
         <v>0.44</v>
@@ -2035,15 +2056,15 @@
       <c r="E5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>101325</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="2">
         <f>1/C5*B5*B5/180/E5*(1-D5)^3/D5/D5*F5/G5</f>
-        <v>3.4751488095238082E-5</v>
+        <v>116.3792584821428</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>3</v>
@@ -2114,9 +2135,10 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="J8" s="2">
         <v>0.66</v>
       </c>
@@ -2140,12 +2162,12 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <f>B5*B5/180/E5*(1-D5)^3/D5/D5</f>
-        <v>1.50907029478458E-10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>5.0537255102040782E-4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="J9" s="2">
         <v>0.64</v>
@@ -2172,10 +2194,10 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <f>B9*100</f>
-        <v>1.50907029478458E-8</v>
+        <v>5.0537255102040782E-2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2">
         <v>0.62</v>
@@ -2223,6 +2245,57 @@
       </c>
       <c r="P11" s="2">
         <v>6.4199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1E-8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.5090702947845799E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>1.83E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.0537255102040782E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.0765124716553246E-5</v>
       </c>
     </row>
   </sheetData>

--- a/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
+++ b/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uintah\Uintah_NTNU\SUBSLIDE\MPMICE2\porousFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E96643-A082-40DA-9843-36ED27FBC34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16A0B3-2E7B-49A1-B781-CC76EC884572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1962,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,10 +2048,10 @@
         <v>1.83E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="3">
         <v>1E-3</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="H5" s="2">
         <f>1/C5*B5*B5/180/E5*(1-D5)^3/D5/D5*F5/G5</f>
-        <v>116.3792584821428</v>
+        <v>83.784516666666732</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>3</v>
@@ -2164,7 +2164,7 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <f>B5*B5/180/E5*(1-D5)^3/D5/D5</f>
-        <v>5.0537255102040782E-4</v>
+        <v>3.3075555555555567E-4</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>14</v>
@@ -2194,7 +2194,7 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <f>B9*100</f>
-        <v>5.0537255102040782E-2</v>
+        <v>3.3075555555555566E-2</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>

--- a/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
+++ b/SUBSLIDE/MPMICE2/porousFlow/PorousFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uintah\Uintah_NTNU\SUBSLIDE\MPMICE2\porousFlow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uintah\Uintah_NTNU\SUBSLIDE\MPMICE2\porousFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16A0B3-2E7B-49A1-B781-CC76EC884572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FB084-10B5-469E-9A1C-044164B4CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="10200" windowWidth="16200" windowHeight="17925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="porous flow" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Analytical solution</t>
   </si>
@@ -90,6 +90,12 @@
   <si>
     <t>Permeability</t>
   </si>
+  <si>
+    <t>Carman</t>
+  </si>
+  <si>
+    <t>Dp</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,16 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -192,6 +195,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,7 +859,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -891,7 +897,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="955922944"/>
@@ -970,7 +976,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1008,7 +1014,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="955923600"/>
@@ -1050,7 +1056,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1087,7 +1093,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1960,111 +1966,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P26"/>
+  <dimension ref="A2:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1"/>
-    <col min="10" max="10" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="J2" s="11" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9" t="s">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>1.83E-2</v>
+        <v>7.4999999999999993E-5</v>
       </c>
       <c r="C5" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D5" s="9">
+        <f>1-C5</f>
+        <v>0.54</v>
+      </c>
+      <c r="E5" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="2">
         <v>101325</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2">
         <f>1/C5*B5*B5/180/E5*(1-D5)^3/D5/D5*F5/G5</f>
-        <v>83.784516666666732</v>
+        <v>2.2977076903292165E-3</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>3</v>
@@ -2088,7 +2095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J6" s="2">
         <v>0.7</v>
       </c>
@@ -2111,7 +2118,7 @@
         <v>2.7519999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J7" s="2">
         <v>0.68</v>
       </c>
@@ -2134,11 +2141,14 @@
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="5"/>
       <c r="J8" s="2">
         <v>0.66</v>
       </c>
@@ -2161,13 +2171,17 @@
         <v>3.7379999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="8">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
         <f>B5*B5/180/E5*(1-D5)^3/D5/D5</f>
-        <v>3.3075555555555567E-4</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>1.043124142661179E-8</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <f>B9*998*9.8</f>
+        <v>1.0202171364883396E-4</v>
       </c>
       <c r="J9" s="2">
         <v>0.64</v>
@@ -2191,10 +2205,10 @@
         <v>4.4350000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>B9*100</f>
-        <v>3.3075555555555566E-2</v>
+        <v>1.043124142661179E-6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -2221,7 +2235,7 @@
         <v>5.314E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>0.01</v>
       </c>
@@ -2247,42 +2261,59 @@
         <v>6.4199999999999993E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f>C5*998*9.8*B5*B5/18/D5/E5/(10*D5/C5/C5+C5*C5*(1+1.5*SQRT(D5)))</f>
+        <v>1.0027382516292518E-4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>8.4999999999999995E-4</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>1E-8</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>0.01</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>1.5090702947845799E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1.83E-3</v>
       </c>
@@ -2290,8 +2321,8 @@
         <v>5.0537255102040782E-6</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="C26" s="1">
@@ -2320,9 +2351,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2347,7 +2378,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -2372,7 +2403,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.15</v>
       </c>
@@ -2397,7 +2428,7 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -2422,7 +2453,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.35</v>
       </c>
@@ -2447,7 +2478,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.45</v>
       </c>
@@ -2472,7 +2503,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.55000000000000004</v>
       </c>
@@ -2497,7 +2528,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.65</v>
       </c>
@@ -2522,7 +2553,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.75</v>
       </c>
@@ -2547,7 +2578,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.85</v>
       </c>
@@ -2572,7 +2603,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.95</v>
       </c>
@@ -2597,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.05</v>
       </c>
@@ -2622,11 +2653,11 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>0.12465974625144199</v>
       </c>
       <c r="D13">
@@ -2647,7 +2678,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.25</v>
       </c>
@@ -2672,7 +2703,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.35</v>
       </c>
@@ -2697,7 +2728,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.45</v>
       </c>
@@ -2722,7 +2753,7 @@
         <v>1.4999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.55</v>
       </c>
@@ -2747,7 +2778,7 @@
         <v>1.5999999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.65</v>
       </c>
@@ -2772,7 +2803,7 @@
         <v>1.6999999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.75</v>
       </c>
@@ -2797,7 +2828,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.85</v>
       </c>
@@ -2822,7 +2853,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.95</v>
       </c>
@@ -2847,7 +2878,7 @@
         <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
